--- a/Anya_Pavlova/God_feeding_old_samples.xlsx
+++ b/Anya_Pavlova/God_feeding_old_samples.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -367,6 +367,150 @@
   </si>
   <si>
     <t>Furcellaria fastigiata</t>
+  </si>
+  <si>
+    <t>422-71</t>
+  </si>
+  <si>
+    <t>Куричок</t>
+  </si>
+  <si>
+    <t>13.08.</t>
+  </si>
+  <si>
+    <t>421-71</t>
+  </si>
+  <si>
+    <t>Dictyosiphon sp</t>
+  </si>
+  <si>
+    <t>Nereis virenus</t>
+  </si>
+  <si>
+    <t>420-71</t>
+  </si>
+  <si>
+    <t>phyllophora sp</t>
+  </si>
+  <si>
+    <t>Errantia</t>
+  </si>
+  <si>
+    <t>остатки</t>
+  </si>
+  <si>
+    <t>Nereis sp</t>
+  </si>
+  <si>
+    <t>419-71</t>
+  </si>
+  <si>
+    <t>418-71</t>
+  </si>
+  <si>
+    <t>417-71</t>
+  </si>
+  <si>
+    <t>Nereis pelagica</t>
+  </si>
+  <si>
+    <t>416-71</t>
+  </si>
+  <si>
+    <t>Sabinea septemcarinata</t>
+  </si>
+  <si>
+    <t>415-71</t>
+  </si>
+  <si>
+    <t>Atylus corinatus</t>
+  </si>
+  <si>
+    <t>414-71</t>
+  </si>
+  <si>
+    <t>413-71</t>
+  </si>
+  <si>
+    <t>Polysiphoma arctica</t>
+  </si>
+  <si>
+    <t>Pannulicornis juv</t>
+  </si>
+  <si>
+    <t>412-71</t>
+  </si>
+  <si>
+    <t>Mollusca</t>
+  </si>
+  <si>
+    <t>Decapoda gen sp</t>
+  </si>
+  <si>
+    <t>411-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyhaeta </t>
+  </si>
+  <si>
+    <t>Polysiphonia arctica</t>
+  </si>
+  <si>
+    <t>410-71</t>
+  </si>
+  <si>
+    <t>Rhodophyta</t>
+  </si>
+  <si>
+    <t>409-71</t>
+  </si>
+  <si>
+    <t>S. borecy</t>
+  </si>
+  <si>
+    <t>Chlamys islandicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> челюсти</t>
+  </si>
+  <si>
+    <t>408-71</t>
+  </si>
+  <si>
+    <t>407-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nereis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">челюсти </t>
+  </si>
+  <si>
+    <t>406-71</t>
+  </si>
+  <si>
+    <t>Stictyosiphon subarticulatus</t>
+  </si>
+  <si>
+    <t>405-71</t>
+  </si>
+  <si>
+    <t>404-71</t>
+  </si>
+  <si>
+    <t>403-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decapoda </t>
+  </si>
+  <si>
+    <t>Phillophora sp</t>
+  </si>
+  <si>
+    <t>нога</t>
+  </si>
+  <si>
+    <t>Mysidacea</t>
   </si>
 </sst>
 </file>
@@ -3116,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,695 +7449,2110 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
+      <c r="A120">
+        <v>38</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
       <c r="D120">
         <v>1971</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>19.5</v>
+      </c>
+      <c r="I120" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" t="s">
+        <v>60</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
+      <c r="A121">
+        <v>39</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
       <c r="D121">
         <v>1971</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
+      <c r="G121">
+        <v>60</v>
+      </c>
+      <c r="H121">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>9</v>
+      </c>
+      <c r="J121" t="s">
+        <v>119</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="1"/>
+      <c r="A122">
+        <v>39</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
       <c r="D122">
         <v>1971</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
+      <c r="G122">
+        <v>60</v>
+      </c>
+      <c r="H122">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s">
+        <v>9</v>
+      </c>
+      <c r="J122" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B123" s="1"/>
+      <c r="A123">
+        <v>39</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" t="s">
+        <v>116</v>
+      </c>
       <c r="D123">
         <v>1971</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
+      <c r="G123">
+        <v>60</v>
+      </c>
+      <c r="H123">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>9</v>
+      </c>
+      <c r="J123" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="1"/>
+      <c r="A124">
+        <v>40</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" t="s">
+        <v>116</v>
+      </c>
       <c r="D124">
         <v>1971</v>
       </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
+      <c r="G124">
+        <v>160</v>
+      </c>
+      <c r="H124">
+        <v>23.5</v>
+      </c>
+      <c r="I124" t="s">
+        <v>9</v>
+      </c>
+      <c r="J124" t="s">
+        <v>39</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="1"/>
+      <c r="A125">
+        <v>40</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
       <c r="D125">
         <v>1971</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
+      <c r="G125">
+        <v>160</v>
+      </c>
+      <c r="H125">
+        <v>23.5</v>
+      </c>
+      <c r="I125" t="s">
+        <v>9</v>
+      </c>
+      <c r="J125" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
+      <c r="A126">
+        <v>40</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" t="s">
+        <v>116</v>
+      </c>
       <c r="D126">
         <v>1971</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
+      <c r="G126">
+        <v>160</v>
+      </c>
+      <c r="H126">
+        <v>23.5</v>
+      </c>
+      <c r="I126" t="s">
+        <v>9</v>
+      </c>
+      <c r="J126" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>40</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
       <c r="D127">
         <v>1971</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
+      <c r="G127">
+        <v>160</v>
+      </c>
+      <c r="H127">
+        <v>23.5</v>
+      </c>
+      <c r="I127" t="s">
+        <v>9</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="L127" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>40</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
+      </c>
       <c r="D128">
         <v>1971</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>160</v>
+      </c>
+      <c r="H128">
+        <v>23.5</v>
+      </c>
+      <c r="I128" t="s">
+        <v>9</v>
+      </c>
+      <c r="J128" t="s">
+        <v>138</v>
+      </c>
+      <c r="L128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>41</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>116</v>
+      </c>
       <c r="D129">
         <v>1971</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>80</v>
+      </c>
+      <c r="H129">
+        <v>20</v>
+      </c>
+      <c r="I129" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" t="s">
+        <v>83</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>41</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" t="s">
+        <v>116</v>
+      </c>
       <c r="D130">
         <v>1971</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>80</v>
+      </c>
+      <c r="H130">
+        <v>20</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" t="s">
+        <v>124</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>42</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" t="s">
+        <v>116</v>
+      </c>
       <c r="D131">
         <v>1971</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>21</v>
+      </c>
+      <c r="I131" t="s">
+        <v>9</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>43</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
       <c r="D132">
         <v>1971</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>80</v>
+      </c>
+      <c r="H132">
+        <v>18.5</v>
+      </c>
+      <c r="I132" t="s">
+        <v>9</v>
+      </c>
+      <c r="J132" t="s">
+        <v>83</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>43</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" t="s">
+        <v>116</v>
+      </c>
       <c r="D133">
         <v>1971</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>80</v>
+      </c>
+      <c r="H133">
+        <v>18.5</v>
+      </c>
+      <c r="I133" t="s">
+        <v>9</v>
+      </c>
+      <c r="J133" t="s">
+        <v>60</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>43</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
       <c r="D134">
         <v>1971</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>80</v>
+      </c>
+      <c r="H134">
+        <v>18.5</v>
+      </c>
+      <c r="I134" t="s">
+        <v>9</v>
+      </c>
+      <c r="J134" t="s">
+        <v>128</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>44</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
+        <v>116</v>
+      </c>
       <c r="D135">
         <v>1971</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>100</v>
+      </c>
+      <c r="H135">
+        <v>20.5</v>
+      </c>
+      <c r="I135" t="s">
+        <v>9</v>
+      </c>
+      <c r="J135" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>44</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" t="s">
+        <v>116</v>
+      </c>
       <c r="D136">
         <v>1971</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>100</v>
+      </c>
+      <c r="H136">
+        <v>20.5</v>
+      </c>
+      <c r="I136" t="s">
+        <v>9</v>
+      </c>
+      <c r="J136" t="s">
+        <v>130</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>44</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
       <c r="D137">
         <v>1971</v>
       </c>
       <c r="E137" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137">
+        <v>20.5</v>
+      </c>
+      <c r="I137" t="s">
+        <v>9</v>
+      </c>
+      <c r="J137" t="s">
+        <v>119</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>44</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>116</v>
+      </c>
       <c r="D138">
         <v>1971</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>100</v>
+      </c>
+      <c r="H138">
+        <v>20.5</v>
+      </c>
+      <c r="I138" t="s">
+        <v>9</v>
+      </c>
+      <c r="J138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>44</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" t="s">
+        <v>116</v>
+      </c>
       <c r="D139">
         <v>1971</v>
       </c>
       <c r="E139" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139">
+        <v>20.5</v>
+      </c>
+      <c r="I139" t="s">
+        <v>9</v>
+      </c>
+      <c r="J139" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>45</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" t="s">
+        <v>116</v>
+      </c>
       <c r="D140">
         <v>1971</v>
       </c>
       <c r="E140" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>80</v>
+      </c>
+      <c r="H140">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J140" t="s">
+        <v>132</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>46</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" t="s">
+        <v>116</v>
+      </c>
       <c r="D141">
         <v>1971</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>120</v>
+      </c>
+      <c r="H141">
+        <v>21.5</v>
+      </c>
+      <c r="I141" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" t="s">
+        <v>119</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>46</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" t="s">
+        <v>116</v>
+      </c>
       <c r="D142">
         <v>1971</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>120</v>
+      </c>
+      <c r="H142">
+        <v>21.5</v>
+      </c>
+      <c r="I142" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" t="s">
+        <v>39</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>46</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" t="s">
+        <v>116</v>
+      </c>
       <c r="D143">
         <v>1971</v>
       </c>
       <c r="E143" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>120</v>
+      </c>
+      <c r="H143">
+        <v>21.5</v>
+      </c>
+      <c r="I143" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" t="s">
+        <v>71</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>46</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" t="s">
+        <v>116</v>
+      </c>
       <c r="D144">
         <v>1971</v>
       </c>
       <c r="E144" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>120</v>
+      </c>
+      <c r="H144">
+        <v>21.5</v>
+      </c>
+      <c r="I144" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" t="s">
+        <v>60</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>47</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" t="s">
+        <v>116</v>
+      </c>
       <c r="D145">
         <v>1971</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>120</v>
+      </c>
+      <c r="H145">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s">
+        <v>9</v>
+      </c>
+      <c r="J145" t="s">
+        <v>71</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>47</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" t="s">
+        <v>116</v>
+      </c>
       <c r="D146">
         <v>1971</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>120</v>
+      </c>
+      <c r="H146">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s">
+        <v>9</v>
+      </c>
+      <c r="J146" t="s">
+        <v>56</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>47</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" t="s">
+        <v>116</v>
+      </c>
       <c r="D147">
         <v>1971</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>120</v>
+      </c>
+      <c r="H147">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>47</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" t="s">
+        <v>116</v>
+      </c>
       <c r="D148">
         <v>1971</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>120</v>
+      </c>
+      <c r="H148">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
+        <v>9</v>
+      </c>
+      <c r="J148" t="s">
+        <v>83</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>47</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" t="s">
+        <v>116</v>
+      </c>
       <c r="D149">
         <v>1971</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>120</v>
+      </c>
+      <c r="H149">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s">
+        <v>9</v>
+      </c>
+      <c r="J149" t="s">
+        <v>136</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>48</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" t="s">
+        <v>116</v>
+      </c>
       <c r="D150">
         <v>1971</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F150" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>60</v>
+      </c>
+      <c r="H150">
+        <v>16.5</v>
+      </c>
+      <c r="I150" t="s">
+        <v>8</v>
+      </c>
+      <c r="J150" t="s">
+        <v>138</v>
+      </c>
+      <c r="L150" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>48</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" t="s">
+        <v>116</v>
+      </c>
       <c r="D151">
         <v>1971</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>60</v>
+      </c>
+      <c r="H151">
+        <v>16.5</v>
+      </c>
+      <c r="I151" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" t="s">
+        <v>83</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>48</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" t="s">
+        <v>116</v>
+      </c>
       <c r="D152">
         <v>1971</v>
       </c>
       <c r="E152" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>60</v>
+      </c>
+      <c r="H152">
+        <v>16.5</v>
+      </c>
+      <c r="I152" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" t="s">
+        <v>136</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>48</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C153" t="s">
+        <v>116</v>
+      </c>
       <c r="D153">
         <v>1971</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>60</v>
+      </c>
+      <c r="H153">
+        <v>16.5</v>
+      </c>
+      <c r="I153" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" t="s">
+        <v>139</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>49</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" t="s">
+        <v>116</v>
+      </c>
       <c r="D154">
         <v>1971</v>
       </c>
       <c r="E154" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>210</v>
+      </c>
+      <c r="H154">
+        <v>24</v>
+      </c>
+      <c r="I154" t="s">
+        <v>9</v>
+      </c>
+      <c r="J154" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>49</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" t="s">
+        <v>116</v>
+      </c>
       <c r="D155">
         <v>1971</v>
       </c>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F155" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>210</v>
+      </c>
+      <c r="H155">
+        <v>24</v>
+      </c>
+      <c r="I155" t="s">
+        <v>9</v>
+      </c>
+      <c r="J155" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>49</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" t="s">
+        <v>116</v>
+      </c>
       <c r="D156">
         <v>1971</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>210</v>
+      </c>
+      <c r="H156">
+        <v>24</v>
+      </c>
+      <c r="I156" t="s">
+        <v>9</v>
+      </c>
+      <c r="J156" t="s">
+        <v>141</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>49</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" t="s">
+        <v>116</v>
+      </c>
       <c r="D157">
         <v>1971</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>210</v>
+      </c>
+      <c r="H157">
+        <v>24</v>
+      </c>
+      <c r="I157" t="s">
+        <v>9</v>
+      </c>
+      <c r="J157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>49</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" t="s">
+        <v>116</v>
+      </c>
       <c r="D158">
         <v>1971</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>210</v>
+      </c>
+      <c r="H158">
+        <v>24</v>
+      </c>
+      <c r="I158" t="s">
+        <v>9</v>
+      </c>
+      <c r="J158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>50</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" t="s">
+        <v>116</v>
+      </c>
       <c r="D159">
         <v>1971</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>260</v>
+      </c>
+      <c r="H159">
+        <v>26</v>
+      </c>
+      <c r="I159" t="s">
+        <v>9</v>
+      </c>
+      <c r="J159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>50</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" t="s">
+        <v>116</v>
+      </c>
       <c r="D160">
         <v>1971</v>
       </c>
       <c r="E160" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F160" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>260</v>
+      </c>
+      <c r="H160">
+        <v>26</v>
+      </c>
+      <c r="I160" t="s">
+        <v>9</v>
+      </c>
+      <c r="J160" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>50</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" t="s">
+        <v>116</v>
+      </c>
       <c r="D161">
         <v>1971</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>260</v>
+      </c>
+      <c r="H161">
+        <v>26</v>
+      </c>
+      <c r="I161" t="s">
+        <v>9</v>
+      </c>
+      <c r="J161" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>50</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" t="s">
+        <v>116</v>
+      </c>
       <c r="D162">
         <v>1971</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>260</v>
+      </c>
+      <c r="H162">
+        <v>26</v>
+      </c>
+      <c r="I162" t="s">
+        <v>9</v>
+      </c>
+      <c r="J162" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>51</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" t="s">
+        <v>116</v>
+      </c>
       <c r="D163">
         <v>1971</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>300</v>
+      </c>
+      <c r="H163">
+        <v>28</v>
+      </c>
+      <c r="I163" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" t="s">
+        <v>146</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>51</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" t="s">
+        <v>116</v>
+      </c>
       <c r="D164">
         <v>1971</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>300</v>
+      </c>
+      <c r="H164">
+        <v>28</v>
+      </c>
+      <c r="I164" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" t="s">
+        <v>138</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>51</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C165" t="s">
+        <v>116</v>
+      </c>
       <c r="D165">
         <v>1971</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>300</v>
+      </c>
+      <c r="H165">
+        <v>28</v>
+      </c>
+      <c r="I165" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" t="s">
+        <v>128</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>51</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C166" t="s">
+        <v>116</v>
+      </c>
       <c r="D166">
         <v>1971</v>
       </c>
       <c r="E166" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F166" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>300</v>
+      </c>
+      <c r="H166">
+        <v>28</v>
+      </c>
+      <c r="I166" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>51</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" t="s">
+        <v>116</v>
+      </c>
       <c r="D167">
         <v>1971</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F167" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>300</v>
+      </c>
+      <c r="H167">
+        <v>28</v>
+      </c>
+      <c r="I167" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" t="s">
+        <v>124</v>
+      </c>
+      <c r="K167">
+        <v>4</v>
+      </c>
+      <c r="L167" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>51</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>116</v>
+      </c>
       <c r="D168">
         <v>1971</v>
       </c>
       <c r="E168" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F168" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>300</v>
+      </c>
+      <c r="H168">
+        <v>28</v>
+      </c>
+      <c r="I168" t="s">
+        <v>8</v>
+      </c>
+      <c r="J168" t="s">
+        <v>147</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>52</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C169" t="s">
+        <v>116</v>
+      </c>
       <c r="D169">
         <v>1971</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F169" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>120</v>
+      </c>
+      <c r="H169">
+        <v>20.5</v>
+      </c>
+      <c r="I169" t="s">
+        <v>9</v>
+      </c>
+      <c r="J169" t="s">
+        <v>142</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>52</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" t="s">
+        <v>116</v>
+      </c>
       <c r="D170">
         <v>1971</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>120</v>
+      </c>
+      <c r="H170">
+        <v>20.5</v>
+      </c>
+      <c r="I170" t="s">
+        <v>9</v>
+      </c>
+      <c r="J170" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>52</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C171" t="s">
+        <v>116</v>
+      </c>
       <c r="D171">
         <v>1971</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F171" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>120</v>
+      </c>
+      <c r="H171">
+        <v>20.5</v>
+      </c>
+      <c r="I171" t="s">
+        <v>9</v>
+      </c>
+      <c r="J171" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>53</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" t="s">
+        <v>116</v>
+      </c>
       <c r="D172">
         <v>1971</v>
       </c>
       <c r="E172" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F172" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>260</v>
+      </c>
+      <c r="H172">
+        <v>27.5</v>
+      </c>
+      <c r="I172" t="s">
+        <v>9</v>
+      </c>
+      <c r="J172" t="s">
+        <v>151</v>
+      </c>
+      <c r="K172">
+        <v>5</v>
+      </c>
+      <c r="L172" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>54</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C173" t="s">
+        <v>116</v>
+      </c>
       <c r="D173">
         <v>1971</v>
       </c>
       <c r="E173" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F173" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173">
+        <v>19.5</v>
+      </c>
+      <c r="I173" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" t="s">
+        <v>128</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>54</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" t="s">
+        <v>116</v>
+      </c>
       <c r="D174">
         <v>1971</v>
       </c>
       <c r="E174" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F174" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>100</v>
+      </c>
+      <c r="H174">
+        <v>19.5</v>
+      </c>
+      <c r="I174" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>55</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" t="s">
+        <v>116</v>
+      </c>
       <c r="D175">
         <v>1971</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F175" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>280</v>
+      </c>
+      <c r="H175">
+        <v>26</v>
+      </c>
+      <c r="I175" t="s">
+        <v>9</v>
+      </c>
+      <c r="J175" t="s">
+        <v>128</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>56</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" t="s">
+        <v>116</v>
+      </c>
       <c r="D176">
         <v>1971</v>
       </c>
       <c r="E176" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F176" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>80</v>
+      </c>
+      <c r="H176">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" t="s">
+        <v>141</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>57</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" t="s">
+        <v>116</v>
+      </c>
       <c r="D177">
         <v>1971</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177">
+        <v>19</v>
+      </c>
+      <c r="I177" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" t="s">
+        <v>158</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>57</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" t="s">
+        <v>116</v>
+      </c>
       <c r="D178">
         <v>1971</v>
       </c>
       <c r="E178" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>100</v>
+      </c>
+      <c r="H178">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" t="s">
+        <v>61</v>
+      </c>
+      <c r="L178" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>57</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C179" t="s">
+        <v>116</v>
+      </c>
       <c r="D179">
         <v>1971</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F179" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>100</v>
+      </c>
+      <c r="H179">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" t="s">
+        <v>159</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>57</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C180" t="s">
+        <v>116</v>
+      </c>
       <c r="D180">
         <v>1971</v>
       </c>
       <c r="E180" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F180" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>100</v>
+      </c>
+      <c r="H180">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" t="s">
+        <v>161</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>1971</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>1971</v>
       </c>
@@ -8004,7 +9563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>1971</v>
       </c>
@@ -8015,7 +9574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>1971</v>
       </c>
@@ -8026,7 +9585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>1971</v>
       </c>
@@ -8037,7 +9596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>1971</v>
       </c>
@@ -8048,7 +9607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>1971</v>
       </c>
@@ -8059,7 +9618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>1971</v>
       </c>
@@ -8070,7 +9629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>1971</v>
       </c>
@@ -8081,7 +9640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D190">
         <v>1971</v>
       </c>
@@ -8092,7 +9651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D191">
         <v>1971</v>
       </c>
@@ -8103,7 +9662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D192">
         <v>1971</v>
       </c>
